--- a/sdeLOD/bassaniTags.xlsx
+++ b/sdeLOD/bassaniTags.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuele/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuele/Desktop/Digital Text in the Humanities/Final Project OcchialidOro/gbggold/sdeLOD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACB528F0-7CA6-4B43-8905-85E7AE00B535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F363F7-1E1D-0F44-8116-740F19429653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16480" xr2:uid="{E9E29B04-312C-A140-BFED-5F93B9517D84}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{E9E29B04-312C-A140-BFED-5F93B9517D84}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
   <si>
     <t>Chapter</t>
   </si>
@@ -44,13 +45,259 @@
   </si>
   <si>
     <t>persName</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>Chapter1</t>
+  </si>
+  <si>
+    <t>Chapter2</t>
+  </si>
+  <si>
+    <t>Chapter3</t>
+  </si>
+  <si>
+    <t>Chapter4</t>
+  </si>
+  <si>
+    <t>Chapter5</t>
+  </si>
+  <si>
+    <t>Chapter6</t>
+  </si>
+  <si>
+    <t>Chapter7</t>
+  </si>
+  <si>
+    <t>Chapter8</t>
+  </si>
+  <si>
+    <t>Chapter9</t>
+  </si>
+  <si>
+    <t>Chapter10</t>
+  </si>
+  <si>
+    <t>Chapter11</t>
+  </si>
+  <si>
+    <t>Chapter12</t>
+  </si>
+  <si>
+    <t>Chapter13</t>
+  </si>
+  <si>
+    <t>Chapter14</t>
+  </si>
+  <si>
+    <t>Chapter15</t>
+  </si>
+  <si>
+    <t>Chapter16</t>
+  </si>
+  <si>
+    <t>Chapter17</t>
+  </si>
+  <si>
+    <t>Chapter18</t>
+  </si>
+  <si>
+    <t>Via Gorgadello</t>
+  </si>
+  <si>
+    <t>Totale</t>
+  </si>
+  <si>
+    <t>Piazza delle Erbe</t>
+  </si>
+  <si>
+    <t>Corso Giovecca</t>
+  </si>
+  <si>
+    <t>Ristorante da Vincenzo</t>
+  </si>
+  <si>
+    <t>Ristorante da Sandrina</t>
+  </si>
+  <si>
+    <t>Ristorante ai Tre Galletti</t>
+  </si>
+  <si>
+    <t>Ristorante da Roveraro</t>
+  </si>
+  <si>
+    <t>Vicolo del Granchio</t>
+  </si>
+  <si>
+    <t>Caffè della Borsa</t>
+  </si>
+  <si>
+    <t>Via Bersaglieri del Po</t>
+  </si>
+  <si>
+    <t>Piazza Travaglio</t>
+  </si>
+  <si>
+    <t>Cinema Excelsior</t>
+  </si>
+  <si>
+    <t>Cinema Salvini</t>
+  </si>
+  <si>
+    <t>Cinema Rex</t>
+  </si>
+  <si>
+    <t>Cinema Diana</t>
+  </si>
+  <si>
+    <t>Farmacia Barilari</t>
+  </si>
+  <si>
+    <t>Filiale del Credito Italiano</t>
+  </si>
+  <si>
+    <t>Il Listone</t>
+  </si>
+  <si>
+    <t>Circolo Unione</t>
+  </si>
+  <si>
+    <t>Via Bomporto</t>
+  </si>
+  <si>
+    <t>Mura degli Angeli</t>
+  </si>
+  <si>
+    <t>Vicolo mozzo Torcicoda</t>
+  </si>
+  <si>
+    <t>Spianata</t>
+  </si>
+  <si>
+    <t>Via Ripagrande</t>
+  </si>
+  <si>
+    <t>Via Piangipane</t>
+  </si>
+  <si>
+    <t>Via Cairoli</t>
+  </si>
+  <si>
+    <t>Corso Roma</t>
+  </si>
+  <si>
+    <t>Qui semantic</t>
+  </si>
+  <si>
+    <t>Palazzo Assicurazioni Generali</t>
+  </si>
+  <si>
+    <t>Castello di Ferrara</t>
+  </si>
+  <si>
+    <t>Arcispedale Sant'Anna</t>
+  </si>
+  <si>
+    <t>Cattedrale di Ferrara</t>
+  </si>
+  <si>
+    <t>Via Saraceno</t>
+  </si>
+  <si>
+    <t>Via Mazzini</t>
+  </si>
+  <si>
+    <t>Via Garibaldi</t>
+  </si>
+  <si>
+    <t>Via San Romano</t>
+  </si>
+  <si>
+    <t>San Carlo</t>
+  </si>
+  <si>
+    <t>Circolo Negozianti</t>
+  </si>
+  <si>
+    <t>Montagnone</t>
+  </si>
+  <si>
+    <t>Viale Cavour</t>
+  </si>
+  <si>
+    <t>Chiesa di San Cristoforo</t>
+  </si>
+  <si>
+    <t>Palazzo Arcivescovile</t>
+  </si>
+  <si>
+    <t>Via Vignatagliata</t>
+  </si>
+  <si>
+    <t>Acquedotto</t>
+  </si>
+  <si>
+    <t>Pontelagoscuro</t>
+  </si>
+  <si>
+    <t>Via Savonarola</t>
+  </si>
+  <si>
+    <t>Chiesa di San Girolamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTALE </t>
+  </si>
+  <si>
+    <t>Centrali</t>
+  </si>
+  <si>
+    <t>Periferici</t>
+  </si>
+  <si>
+    <t>Valori assoluti</t>
+  </si>
+  <si>
+    <t>Valori relativi</t>
+  </si>
+  <si>
+    <t>In sintesi:</t>
+  </si>
+  <si>
+    <t>Capitolo1</t>
+  </si>
+  <si>
+    <t>Capitolo2</t>
+  </si>
+  <si>
+    <t>Capitolo3</t>
+  </si>
+  <si>
+    <t>Capitolo13</t>
+  </si>
+  <si>
+    <t>Capitolo14</t>
+  </si>
+  <si>
+    <t>Capitolo15</t>
+  </si>
+  <si>
+    <t>Capitolo16</t>
+  </si>
+  <si>
+    <t>Capitolo17</t>
+  </si>
+  <si>
+    <t>Capitolo18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -58,16 +305,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -75,12 +360,169 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -96,6 +538,1051 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.3680446194225716E-2"/>
+          <c:y val="0.19483814523184603"/>
+          <c:w val="0.89020844269466315"/>
+          <c:h val="0.6150681685622631"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$E$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Centrali</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$F$57:$N$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-31EB-F744-8646-3BC7485CF948}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$E$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Periferici</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$F$58:$N$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3333333333333321</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.142857142857139</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-31EB-F744-8646-3BC7485CF948}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1099828928"/>
+        <c:axId val="1099830576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1099828928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1099830576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1099830576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1099828928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>151816</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>87586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>642299</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>159991</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00205077-95EC-65A8-F8DB-11135FC6F525}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>802872</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>72989</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>817471</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>29196</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Connettore 1 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53C62B49-77A9-8828-4D82-202B010D4B7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11473792" y="12948161"/>
+          <a:ext cx="14599" cy="2408621"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -395,222 +1882,1313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F254A0-20BC-804E-AC3A-5E3391E2643B}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="133" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L59" sqref="L59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="30.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C2">
+      <c r="W1" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>27</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>13</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>25</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>13</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>17</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>21</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>26</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>16</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>14</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>4</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>6</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="E13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>1</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>26</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="E15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>6</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>5</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="E17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>15</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="E18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>7</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1">
+        <v>1</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
       <c r="B20">
         <f>SUM(B2:B19)</f>
         <v>275</v>
@@ -619,8 +3197,2122 @@
         <f>SUM(C2:C19)</f>
         <v>501</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>1</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>1</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
+        <v>1</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>1</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0</v>
+      </c>
+      <c r="O24" s="5">
+        <v>0</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>1</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0</v>
+      </c>
+      <c r="P25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>1</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0</v>
+      </c>
+      <c r="M26" s="5">
+        <v>0</v>
+      </c>
+      <c r="N26" s="5">
+        <v>0</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0</v>
+      </c>
+      <c r="P26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>1</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0</v>
+      </c>
+      <c r="P27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1">
+        <v>1</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0</v>
+      </c>
+      <c r="N28" s="5">
+        <v>1</v>
+      </c>
+      <c r="O28" s="5">
+        <v>0</v>
+      </c>
+      <c r="P28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1">
+        <v>1</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0</v>
+      </c>
+      <c r="M29" s="5">
+        <v>0</v>
+      </c>
+      <c r="N29" s="5">
+        <v>0</v>
+      </c>
+      <c r="O29" s="5">
+        <v>0</v>
+      </c>
+      <c r="P29" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0</v>
+      </c>
+      <c r="M30" s="5">
+        <v>0</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0</v>
+      </c>
+      <c r="O30" s="5">
+        <v>0</v>
+      </c>
+      <c r="P30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <v>1</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1">
+        <v>0</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0</v>
+      </c>
+      <c r="O31" s="5">
+        <v>0</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
+        <v>0</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1">
+        <v>0</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0</v>
+      </c>
+      <c r="M32" s="5">
+        <v>0</v>
+      </c>
+      <c r="N32" s="5">
+        <v>0</v>
+      </c>
+      <c r="O32" s="5">
+        <v>0</v>
+      </c>
+      <c r="P32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
+        <v>3</v>
+      </c>
+      <c r="S32" s="1">
+        <v>1</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1">
+        <v>0</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0</v>
+      </c>
+      <c r="L33" s="5">
+        <v>0</v>
+      </c>
+      <c r="M33" s="5">
+        <v>0</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0</v>
+      </c>
+      <c r="O33" s="5">
+        <v>0</v>
+      </c>
+      <c r="P33" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0</v>
+      </c>
+      <c r="L34" s="5">
+        <v>0</v>
+      </c>
+      <c r="M34" s="5">
+        <v>0</v>
+      </c>
+      <c r="N34" s="5">
+        <v>0</v>
+      </c>
+      <c r="O34" s="5">
+        <v>0</v>
+      </c>
+      <c r="P34" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0</v>
+      </c>
+      <c r="S34" s="1">
+        <v>1</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0</v>
+      </c>
+      <c r="V34" s="1">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0</v>
+      </c>
+      <c r="M35" s="5">
+        <v>0</v>
+      </c>
+      <c r="N35" s="5">
+        <v>0</v>
+      </c>
+      <c r="O35" s="5">
+        <v>0</v>
+      </c>
+      <c r="P35" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
+      <c r="U35" s="1">
+        <v>2</v>
+      </c>
+      <c r="V35" s="1">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0</v>
+      </c>
+      <c r="M36" s="5">
+        <v>0</v>
+      </c>
+      <c r="N36" s="5">
+        <v>0</v>
+      </c>
+      <c r="O36" s="5">
+        <v>0</v>
+      </c>
+      <c r="P36" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0</v>
+      </c>
+      <c r="M37" s="5">
+        <v>0</v>
+      </c>
+      <c r="N37" s="5">
+        <v>0</v>
+      </c>
+      <c r="O37" s="5">
+        <v>0</v>
+      </c>
+      <c r="P37" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>1</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0</v>
+      </c>
+      <c r="N38" s="5">
+        <v>0</v>
+      </c>
+      <c r="O38" s="5">
+        <v>0</v>
+      </c>
+      <c r="P38" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0</v>
+      </c>
+      <c r="M39" s="5">
+        <v>0</v>
+      </c>
+      <c r="N39" s="5">
+        <v>0</v>
+      </c>
+      <c r="O39" s="5">
+        <v>0</v>
+      </c>
+      <c r="P39" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <v>2</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0</v>
+      </c>
+      <c r="V39" s="1">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
+        <v>3</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0</v>
+      </c>
+      <c r="M40" s="5">
+        <v>0</v>
+      </c>
+      <c r="N40" s="5">
+        <v>0</v>
+      </c>
+      <c r="O40" s="5">
+        <v>0</v>
+      </c>
+      <c r="P40" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
+        <v>0</v>
+      </c>
+      <c r="V40" s="1">
+        <v>0</v>
+      </c>
+      <c r="W40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0</v>
+      </c>
+      <c r="K41" s="5">
+        <v>0</v>
+      </c>
+      <c r="L41" s="5">
+        <v>0</v>
+      </c>
+      <c r="M41" s="5">
+        <v>0</v>
+      </c>
+      <c r="N41" s="5">
+        <v>0</v>
+      </c>
+      <c r="O41" s="5">
+        <v>0</v>
+      </c>
+      <c r="P41" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <v>1</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0</v>
+      </c>
+      <c r="V41" s="1">
+        <v>0</v>
+      </c>
+      <c r="W41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0</v>
+      </c>
+      <c r="M42" s="5">
+        <v>0</v>
+      </c>
+      <c r="N42" s="5">
+        <v>0</v>
+      </c>
+      <c r="O42" s="5">
+        <v>0</v>
+      </c>
+      <c r="P42" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <v>2</v>
+      </c>
+      <c r="S42" s="1">
+        <v>1</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0</v>
+      </c>
+      <c r="U42" s="1">
+        <v>0</v>
+      </c>
+      <c r="V42" s="1">
+        <v>0</v>
+      </c>
+      <c r="W42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0</v>
+      </c>
+      <c r="K43" s="5">
+        <v>0</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0</v>
+      </c>
+      <c r="M43" s="5">
+        <v>0</v>
+      </c>
+      <c r="N43" s="5">
+        <v>0</v>
+      </c>
+      <c r="O43" s="5">
+        <v>0</v>
+      </c>
+      <c r="P43" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0</v>
+      </c>
+      <c r="S43" s="1">
+        <v>1</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0</v>
+      </c>
+      <c r="U43" s="1">
+        <v>0</v>
+      </c>
+      <c r="V43" s="1">
+        <v>0</v>
+      </c>
+      <c r="W43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0</v>
+      </c>
+      <c r="K44" s="5">
+        <v>0</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0</v>
+      </c>
+      <c r="N44" s="5">
+        <v>0</v>
+      </c>
+      <c r="O44" s="5">
+        <v>0</v>
+      </c>
+      <c r="P44" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>0</v>
+      </c>
+      <c r="R44" s="1">
+        <v>0</v>
+      </c>
+      <c r="S44" s="1">
+        <v>0</v>
+      </c>
+      <c r="T44" s="1">
+        <v>1</v>
+      </c>
+      <c r="U44" s="1">
+        <v>1</v>
+      </c>
+      <c r="V44" s="1">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0</v>
+      </c>
+      <c r="J45" s="5">
+        <v>0</v>
+      </c>
+      <c r="K45" s="5">
+        <v>0</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0</v>
+      </c>
+      <c r="M45" s="5">
+        <v>0</v>
+      </c>
+      <c r="N45" s="5">
+        <v>0</v>
+      </c>
+      <c r="O45" s="5">
+        <v>0</v>
+      </c>
+      <c r="P45" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <v>0</v>
+      </c>
+      <c r="S45" s="1">
+        <v>0</v>
+      </c>
+      <c r="T45" s="1">
+        <v>0</v>
+      </c>
+      <c r="U45" s="1">
+        <v>1</v>
+      </c>
+      <c r="V45" s="1">
+        <v>0</v>
+      </c>
+      <c r="W45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0</v>
+      </c>
+      <c r="J46" s="5">
+        <v>0</v>
+      </c>
+      <c r="K46" s="5">
+        <v>0</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0</v>
+      </c>
+      <c r="M46" s="5">
+        <v>0</v>
+      </c>
+      <c r="N46" s="5">
+        <v>0</v>
+      </c>
+      <c r="O46" s="5">
+        <v>0</v>
+      </c>
+      <c r="P46" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
+        <v>0</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0</v>
+      </c>
+      <c r="U46" s="1">
+        <v>0</v>
+      </c>
+      <c r="V46" s="1">
+        <v>1</v>
+      </c>
+      <c r="W46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0</v>
+      </c>
+      <c r="J47" s="5">
+        <v>0</v>
+      </c>
+      <c r="K47" s="5">
+        <v>0</v>
+      </c>
+      <c r="L47" s="5">
+        <v>0</v>
+      </c>
+      <c r="M47" s="5">
+        <v>0</v>
+      </c>
+      <c r="N47" s="5">
+        <v>0</v>
+      </c>
+      <c r="O47" s="5">
+        <v>0</v>
+      </c>
+      <c r="P47" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
+        <v>0</v>
+      </c>
+      <c r="S47" s="1">
+        <v>0</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0</v>
+      </c>
+      <c r="U47" s="1">
+        <v>0</v>
+      </c>
+      <c r="V47" s="1">
+        <v>1</v>
+      </c>
+      <c r="W47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E49" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F49" s="1">
+        <f>SUM(F2:F47)</f>
+        <v>13</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" ref="G49:W49" si="0">SUM(G2:G47)</f>
+        <v>26</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I49" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J49" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L49" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M49" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O49" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="S49" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="T49" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="U49" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="V49" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="W49" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C50" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" s="1">
+        <f>SUM(F2:F20,F28:F42)</f>
+        <v>13</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" ref="G50:W50" si="1">SUM(G2:G20,G28:G42)</f>
+        <v>26</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I50" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J50" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L50" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M50" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O50" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="S50" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="T50" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="U50" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="V50" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="W50" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" s="1">
+        <f>SUM(F21:F27,F43:F47)</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" ref="G51:W51" si="2">SUM(G21:G27,G43:G47)</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M51" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S51" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T51" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="U51" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="V51" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="W51" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C52" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" s="1">
+        <f>F50/F49*100</f>
+        <v>100</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" ref="G52:W52" si="3">G50/G49*100</f>
+        <v>100</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="1">
+        <f t="shared" si="3"/>
+        <v>91.666666666666657</v>
+      </c>
+      <c r="S52" s="1">
+        <f t="shared" si="3"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="T52" s="1">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="U52" s="1">
+        <f t="shared" si="3"/>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="V52" s="1">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="W52" s="1">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F53" s="1">
+        <f>F51/F49*100</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" ref="G53:W53" si="4">G51/G49*100</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1">
+        <f t="shared" si="4"/>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="S53" s="1">
+        <f t="shared" si="4"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="T53" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="U53" s="1">
+        <f t="shared" si="4"/>
+        <v>57.142857142857139</v>
+      </c>
+      <c r="V53" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="W53" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C56" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H56" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I56" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="J56" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="K56" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="L56" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="M56" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N56" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E57" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F57" s="1">
+        <v>100</v>
+      </c>
+      <c r="G57" s="1">
+        <v>100</v>
+      </c>
+      <c r="H57" s="1">
+        <v>100</v>
+      </c>
+      <c r="I57" s="1">
+        <v>91.666666666666657</v>
+      </c>
+      <c r="J57" s="1">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="K57" s="1">
+        <v>50</v>
+      </c>
+      <c r="L57" s="1">
+        <v>42.857142857142854</v>
+      </c>
+      <c r="M57" s="1">
+        <v>50</v>
+      </c>
+      <c r="N57" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E58" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F58" s="12">
+        <v>0</v>
+      </c>
+      <c r="G58" s="12">
+        <v>0</v>
+      </c>
+      <c r="H58" s="12">
+        <v>0</v>
+      </c>
+      <c r="I58" s="12">
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="J58" s="12">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="K58" s="12">
+        <v>50</v>
+      </c>
+      <c r="L58" s="12">
+        <v>57.142857142857139</v>
+      </c>
+      <c r="M58" s="12">
+        <v>50</v>
+      </c>
+      <c r="N58" s="13">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="C56:D56"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB781FB3-82E6-2F4F-A827-7B55BE95ED4B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sdeLOD/bassaniTags.xlsx
+++ b/sdeLOD/bassaniTags.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuele/Desktop/Digital Text in the Humanities/Final Project OcchialidOro/gbggold/sdeLOD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F363F7-1E1D-0F44-8116-740F19429653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08345ACF-D8BE-144C-84A7-6C50702565DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{E9E29B04-312C-A140-BFED-5F93B9517D84}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
   <si>
     <t>Chapter</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>Capitolo18</t>
+  </si>
+  <si>
+    <t>Corso Ercole I</t>
   </si>
 </sst>
 </file>
@@ -508,13 +511,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -523,6 +520,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -605,7 +608,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$E$57</c:f>
+              <c:f>Foglio1!$E$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -628,7 +631,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$F$57:$N$57</c:f>
+              <c:f>Foglio1!$F$58:$N$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -674,7 +677,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$E$58</c:f>
+              <c:f>Foglio1!$E$59</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -697,7 +700,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$F$58:$N$58</c:f>
+              <c:f>Foglio1!$F$59:$N$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1495,13 +1498,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>151816</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>87586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>642299</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>159991</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1531,13 +1534,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>802872</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>72989</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>817471</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>29196</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1882,10 +1885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F254A0-20BC-804E-AC3A-5E3391E2643B}">
-  <dimension ref="A1:W58"/>
+  <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="133" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+    <sheetView tabSelected="1" topLeftCell="H31" zoomScale="133" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="S54" sqref="S54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2850,7 +2853,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1">
         <v>25</v>
@@ -2986,7 +2989,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1">
         <v>8</v>
@@ -3191,7 +3194,7 @@
       </c>
       <c r="B20">
         <f>SUM(B2:B19)</f>
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C20">
         <f>SUM(C2:C19)</f>
@@ -4794,510 +4797,569 @@
     </row>
     <row r="47" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0</v>
+      </c>
+      <c r="J47" s="5">
+        <v>0</v>
+      </c>
+      <c r="K47" s="5">
+        <v>0</v>
+      </c>
+      <c r="L47" s="5">
+        <v>0</v>
+      </c>
+      <c r="M47" s="5">
+        <v>0</v>
+      </c>
+      <c r="N47" s="5">
+        <v>0</v>
+      </c>
+      <c r="O47" s="5">
+        <v>0</v>
+      </c>
+      <c r="P47" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
+        <v>0</v>
+      </c>
+      <c r="S47" s="1">
+        <v>1</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0</v>
+      </c>
+      <c r="U47" s="1">
+        <v>0</v>
+      </c>
+      <c r="V47" s="1">
+        <v>0</v>
+      </c>
+      <c r="W47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E48" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F47" s="1">
-        <v>0</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0</v>
-      </c>
-      <c r="I47" s="5">
-        <v>0</v>
-      </c>
-      <c r="J47" s="5">
-        <v>0</v>
-      </c>
-      <c r="K47" s="5">
-        <v>0</v>
-      </c>
-      <c r="L47" s="5">
-        <v>0</v>
-      </c>
-      <c r="M47" s="5">
-        <v>0</v>
-      </c>
-      <c r="N47" s="5">
-        <v>0</v>
-      </c>
-      <c r="O47" s="5">
-        <v>0</v>
-      </c>
-      <c r="P47" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="5">
-        <v>0</v>
-      </c>
-      <c r="R47" s="1">
-        <v>0</v>
-      </c>
-      <c r="S47" s="1">
-        <v>0</v>
-      </c>
-      <c r="T47" s="1">
-        <v>0</v>
-      </c>
-      <c r="U47" s="1">
-        <v>0</v>
-      </c>
-      <c r="V47" s="1">
-        <v>1</v>
-      </c>
-      <c r="W47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="E49" s="2" t="s">
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0</v>
+      </c>
+      <c r="K48" s="5">
+        <v>0</v>
+      </c>
+      <c r="L48" s="5">
+        <v>0</v>
+      </c>
+      <c r="M48" s="5">
+        <v>0</v>
+      </c>
+      <c r="N48" s="5">
+        <v>0</v>
+      </c>
+      <c r="O48" s="5">
+        <v>0</v>
+      </c>
+      <c r="P48" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="5">
+        <v>0</v>
+      </c>
+      <c r="R48" s="1">
+        <v>0</v>
+      </c>
+      <c r="S48" s="1">
+        <v>0</v>
+      </c>
+      <c r="T48" s="1">
+        <v>0</v>
+      </c>
+      <c r="U48" s="1">
+        <v>0</v>
+      </c>
+      <c r="V48" s="1">
+        <v>1</v>
+      </c>
+      <c r="W48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E50" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F49" s="1">
-        <f>SUM(F2:F47)</f>
+      <c r="F50" s="1">
+        <f>SUM(F2:F48)</f>
         <v>13</v>
       </c>
-      <c r="G49" s="1">
-        <f t="shared" ref="G49:W49" si="0">SUM(G2:G47)</f>
+      <c r="G50" s="1">
+        <f t="shared" ref="G50:W50" si="0">SUM(G2:G48)</f>
         <v>26</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H50" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I50" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J49" s="9">
+      <c r="J50" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K49" s="9">
+      <c r="K50" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L49" s="9">
+      <c r="L50" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M49" s="9">
+      <c r="M50" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N49" s="9">
+      <c r="N50" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O49" s="9">
+      <c r="O50" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P49" s="9">
+      <c r="P50" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="9">
+      <c r="Q50" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R49" s="1">
+      <c r="R50" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="S49" s="1">
+      <c r="S50" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="T50" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="T49" s="1">
+      <c r="U50" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="V50" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="U49" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="V49" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="W49" s="1">
+      <c r="W50" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="C50" s="8" t="s">
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C51" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="2" t="s">
+      <c r="D51" s="17"/>
+      <c r="E51" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F51" s="1">
         <f>SUM(F2:F20,F28:F42)</f>
         <v>13</v>
       </c>
-      <c r="G50" s="1">
-        <f t="shared" ref="G50:W50" si="1">SUM(G2:G20,G28:G42)</f>
+      <c r="G51" s="1">
+        <f t="shared" ref="G51:W51" si="1">SUM(G2:G20,G28:G42)</f>
         <v>26</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H51" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I51" s="8">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J50" s="9">
+      <c r="J51" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K50" s="9">
+      <c r="K51" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L50" s="9">
+      <c r="L51" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M50" s="9">
+      <c r="M51" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N50" s="9">
+      <c r="N51" s="8">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="O50" s="9">
+      <c r="O51" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P50" s="9">
+      <c r="P51" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q50" s="9">
+      <c r="Q51" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R50" s="1">
+      <c r="R51" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="S50" s="1">
+      <c r="S51" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="T50" s="1">
+      <c r="T51" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U50" s="1">
+      <c r="U51" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="V50" s="1">
+      <c r="V51" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="W50" s="1">
+      <c r="W51" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="2" t="s">
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F51" s="1">
-        <f>SUM(F21:F27,F43:F47)</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="1">
-        <f t="shared" ref="G51:W51" si="2">SUM(G21:G27,G43:G47)</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="1">
+      <c r="F52" s="1">
+        <f>SUM(F21:F27,F43:F48)</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" ref="G52:W52" si="2">SUM(G21:G27,G43:G48)</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I52" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J51" s="9">
+      <c r="J52" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K51" s="9">
+      <c r="K52" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L51" s="9">
+      <c r="L52" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M51" s="9">
+      <c r="M52" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N51" s="9">
+      <c r="N52" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O51" s="9">
+      <c r="O52" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P51" s="9">
+      <c r="P52" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q51" s="9">
+      <c r="Q52" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R51" s="1">
+      <c r="R52" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S51" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="T51" s="1">
+      <c r="S52" s="1">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="U51" s="1">
+      <c r="T52" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="U52" s="1">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="V51" s="1">
+      <c r="V52" s="1">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="W51" s="1">
+      <c r="W52" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="C52" s="8" t="s">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C53" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="2" t="s">
+      <c r="D53" s="17"/>
+      <c r="E53" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F52" s="1">
-        <f>F50/F49*100</f>
+      <c r="F53" s="1">
+        <f>F51/F50*100</f>
         <v>100</v>
       </c>
-      <c r="G52" s="1">
-        <f t="shared" ref="G52:W52" si="3">G50/G49*100</f>
+      <c r="G53" s="1">
+        <f t="shared" ref="G53:W53" si="3">G51/G50*100</f>
         <v>100</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H53" s="1">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="1">
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="1">
         <f t="shared" si="3"/>
         <v>91.666666666666657</v>
       </c>
-      <c r="S52" s="1">
+      <c r="S53" s="1">
         <f t="shared" si="3"/>
-        <v>66.666666666666657</v>
-      </c>
-      <c r="T52" s="1">
+        <v>57.142857142857139</v>
+      </c>
+      <c r="T53" s="1">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="U52" s="1">
+      <c r="U53" s="1">
         <f t="shared" si="3"/>
         <v>42.857142857142854</v>
       </c>
-      <c r="V52" s="1">
+      <c r="V53" s="1">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="W52" s="1">
+      <c r="W53" s="1">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="2" t="s">
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F53" s="1">
-        <f>F51/F49*100</f>
-        <v>0</v>
-      </c>
-      <c r="G53" s="1">
-        <f t="shared" ref="G53:W53" si="4">G51/G49*100</f>
-        <v>0</v>
-      </c>
-      <c r="H53" s="1">
+      <c r="F54" s="1">
+        <f>F52/F50*100</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" ref="G54:W54" si="4">G52/G50*100</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1">
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1">
         <f t="shared" si="4"/>
         <v>8.3333333333333321</v>
       </c>
-      <c r="S53" s="1">
+      <c r="S54" s="1">
         <f t="shared" si="4"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="T53" s="1">
+        <v>42.857142857142854</v>
+      </c>
+      <c r="T54" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="U53" s="1">
+      <c r="U54" s="1">
         <f t="shared" si="4"/>
         <v>57.142857142857139</v>
       </c>
-      <c r="V53" s="1">
+      <c r="V54" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="W53" s="1">
+      <c r="W54" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="3:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="C56" s="10" t="s">
+    <row r="56" spans="3:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C57" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D56" s="10"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="17" t="s">
+      <c r="D57" s="18"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G56" s="17" t="s">
+      <c r="G57" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H56" s="17" t="s">
+      <c r="H57" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="I56" s="17" t="s">
+      <c r="I57" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="J56" s="17" t="s">
+      <c r="J57" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="K56" s="17" t="s">
+      <c r="K57" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="L56" s="17" t="s">
+      <c r="L57" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="M56" s="17" t="s">
+      <c r="M57" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="N56" s="18" t="s">
+      <c r="N57" s="16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="E57" s="15" t="s">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E58" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F58" s="1">
         <v>100</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G58" s="1">
         <v>100</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H58" s="1">
         <v>100</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I58" s="1">
         <v>91.666666666666657</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J58" s="1">
         <v>66.666666666666657</v>
       </c>
-      <c r="K57" s="1">
+      <c r="K58" s="1">
         <v>50</v>
       </c>
-      <c r="L57" s="1">
+      <c r="L58" s="1">
         <v>42.857142857142854</v>
       </c>
-      <c r="M57" s="1">
+      <c r="M58" s="1">
         <v>50</v>
       </c>
-      <c r="N57" s="11">
+      <c r="N58" s="9">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="3:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E58" s="16" t="s">
+    <row r="59" spans="3:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E59" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F58" s="12">
-        <v>0</v>
-      </c>
-      <c r="G58" s="12">
-        <v>0</v>
-      </c>
-      <c r="H58" s="12">
-        <v>0</v>
-      </c>
-      <c r="I58" s="12">
+      <c r="F59" s="10">
+        <v>0</v>
+      </c>
+      <c r="G59" s="10">
+        <v>0</v>
+      </c>
+      <c r="H59" s="10">
+        <v>0</v>
+      </c>
+      <c r="I59" s="10">
         <v>8.3333333333333321</v>
       </c>
-      <c r="J58" s="12">
+      <c r="J59" s="10">
         <v>33.333333333333329</v>
       </c>
-      <c r="K58" s="12">
+      <c r="K59" s="10">
         <v>50</v>
       </c>
-      <c r="L58" s="12">
+      <c r="L59" s="10">
         <v>57.142857142857139</v>
       </c>
-      <c r="M58" s="12">
+      <c r="M59" s="10">
         <v>50</v>
       </c>
-      <c r="N58" s="13">
+      <c r="N59" s="11">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="C57:D57"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
